--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_7_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637251.6103316685</v>
+        <v>703300.3045938178</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>911397.4673764094</v>
+        <v>911397.4673764092</v>
       </c>
     </row>
     <row r="8">
@@ -658,17 +658,17 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>152.9063151287279</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>29.8892983910557</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>17.38540584383043</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>114.9581870864144</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.13733751482909</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>196.8735174535738</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3425922190695</v>
+        <v>414.5345316725085</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>106.9884316772118</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>101.6133076792577</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>191.5145789473921</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.7330284880335</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1454,13 +1454,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>75.24506732005759</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>74.63814476896204</v>
       </c>
       <c r="S12" t="n">
-        <v>164.0485367057106</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.508004016692</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9143408729531</v>
+        <v>220.9971174067491</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>128.0909590573368</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>164.8783501584425</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>218.011322023392</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>226.4732473696572</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>173.3402755047077</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>266.5425095354763</v>
+        <v>414.5345316725085</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>331.6074140299677</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2841964404264</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21.76170213911303</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.9324908012807</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>108.2657948989106</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>75.24506732005759</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.82002757295779</v>
+        <v>74.63814476896204</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9143408729531</v>
+        <v>152.339036973593</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>218.011322023392</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>139.2139542042717</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>173.3402755047077</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>79.13678349751333</v>
       </c>
       <c r="F17" t="n">
-        <v>214.7181264796115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68.08390849687525</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4120358099646</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>63.2560035225445</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>25.20715699443156</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2140,13 +2140,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,7 +2174,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H21" t="n">
         <v>104.3883541553076</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>205.0849044383765</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>74.62372476861172</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>221.0021786982961</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>6.390346842435148</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>97.34004921506737</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>319.3940307068632</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>90.73779827448968</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.63926978364032</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.20320529449389</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>264.0756743143457</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>194.5492126817475</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>249.3557051799029</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>198.2175085914294</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H33" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>94.63926978364034</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>58.49852621786721</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>348.4711068436575</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.61413745349986</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6.621576176023786</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>310.8635759547336</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>35.18155893056252</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>14.9138545113332</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>190.4836118614245</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>217.5266626076323</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>186.6309197808581</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>36.51018333499781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>68.4314178382491</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>349.67617491742</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>104.2723007799449</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>147.0698663026999</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>186.6309197808581</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>9.693200015577853</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>641.3909951282167</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>466.9379658470897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>318.0035561858384</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>809.6063321482848</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>809.6063321482848</v>
+        <v>933.8659450146204</v>
       </c>
       <c r="U3" t="n">
-        <v>809.6063321482848</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V3" t="n">
-        <v>809.6063321482848</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W3" t="n">
-        <v>809.6063321482848</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X3" t="n">
-        <v>809.6063321482848</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>809.6063321482848</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4506,10 +4506,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>36.84215911408185</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>933.9571464551993</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>705.7335281915883</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>470.5814199598456</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>227.1326433157456</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066566</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X8" t="n">
-        <v>591.4512093066566</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.4512093066566</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>694.6722890434539</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="C9" t="n">
-        <v>520.2192597623269</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="D9" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4919,16 +4919,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>428.8733789897854</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>428.8733789897854</v>
       </c>
     </row>
     <row r="10">
@@ -4989,7 +4989,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.397276385808</v>
+        <v>921.6532488619027</v>
       </c>
       <c r="C11" t="n">
-        <v>382.397276385808</v>
+        <v>921.6532488619027</v>
       </c>
       <c r="D11" t="n">
-        <v>382.397276385808</v>
+        <v>563.3875502551523</v>
       </c>
       <c r="E11" t="n">
-        <v>382.397276385808</v>
+        <v>563.3875502551523</v>
       </c>
       <c r="F11" t="n">
-        <v>382.397276385808</v>
+        <v>563.3875502551523</v>
       </c>
       <c r="G11" t="n">
-        <v>36.59667818472769</v>
+        <v>144.6658010910023</v>
       </c>
       <c r="H11" t="n">
-        <v>36.59667818472769</v>
+        <v>144.6658010910023</v>
       </c>
       <c r="I11" t="n">
         <v>36.59667818472769</v>
@@ -5047,10 +5047,10 @@
         <v>289.0718704783262</v>
       </c>
       <c r="L11" t="n">
-        <v>589.1640791381762</v>
+        <v>589.1640791381761</v>
       </c>
       <c r="M11" t="n">
-        <v>939.6810283235441</v>
+        <v>939.681028323544</v>
       </c>
       <c r="N11" t="n">
         <v>1281.237710655106</v>
@@ -5065,28 +5065,28 @@
         <v>1829.833909236384</v>
       </c>
       <c r="R11" t="n">
-        <v>1829.833909236384</v>
+        <v>1727.194204509861</v>
       </c>
       <c r="S11" t="n">
-        <v>1829.833909236384</v>
+        <v>1533.745134866031</v>
       </c>
       <c r="T11" t="n">
-        <v>1829.833909236384</v>
+        <v>1311.792580837714</v>
       </c>
       <c r="U11" t="n">
-        <v>1829.833909236384</v>
+        <v>1311.792580837714</v>
       </c>
       <c r="V11" t="n">
-        <v>1498.771021892814</v>
+        <v>1311.792580837714</v>
       </c>
       <c r="W11" t="n">
-        <v>1146.0023666227</v>
+        <v>1311.792580837714</v>
       </c>
       <c r="X11" t="n">
-        <v>772.5366083616198</v>
+        <v>1311.792580837714</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.397276385808</v>
+        <v>921.6532488619027</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287.0548259709634</v>
+        <v>665.7561301056764</v>
       </c>
       <c r="C12" t="n">
-        <v>112.6017966898364</v>
+        <v>491.3031008245495</v>
       </c>
       <c r="D12" t="n">
-        <v>112.6017966898364</v>
+        <v>342.3686911632982</v>
       </c>
       <c r="E12" t="n">
-        <v>112.6017966898364</v>
+        <v>183.1312361578427</v>
       </c>
       <c r="F12" t="n">
-        <v>112.6017966898364</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="G12" t="n">
-        <v>112.6017966898364</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="H12" t="n">
-        <v>112.6017966898364</v>
+        <v>36.59667818472769</v>
       </c>
       <c r="I12" t="n">
         <v>36.59667818472769</v>
       </c>
       <c r="J12" t="n">
-        <v>36.59667818472769</v>
+        <v>74.30220046343456</v>
       </c>
       <c r="K12" t="n">
-        <v>36.59667818472769</v>
+        <v>74.30220046343456</v>
       </c>
       <c r="L12" t="n">
-        <v>350.1268696242943</v>
+        <v>392.6178565373319</v>
       </c>
       <c r="M12" t="n">
-        <v>773.5654479233027</v>
+        <v>816.0564348363403</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.918198796529</v>
+        <v>1266.409185709567</v>
       </c>
       <c r="O12" t="n">
-        <v>1569.487304043008</v>
+        <v>1611.978290956045</v>
       </c>
       <c r="P12" t="n">
-        <v>1829.833909236384</v>
+        <v>1708.496867717656</v>
       </c>
       <c r="Q12" t="n">
         <v>1829.833909236384</v>
       </c>
       <c r="R12" t="n">
-        <v>1829.833909236384</v>
+        <v>1754.44184381319</v>
       </c>
       <c r="S12" t="n">
-        <v>1664.128316604354</v>
+        <v>1754.44184381319</v>
       </c>
       <c r="T12" t="n">
-        <v>1463.615181233958</v>
+        <v>1754.44184381319</v>
       </c>
       <c r="U12" t="n">
-        <v>1235.418877321884</v>
+        <v>1531.212432291222</v>
       </c>
       <c r="V12" t="n">
-        <v>1000.266769090141</v>
+        <v>1296.060324059479</v>
       </c>
       <c r="W12" t="n">
-        <v>870.8819619615182</v>
+        <v>1041.822967331277</v>
       </c>
       <c r="X12" t="n">
-        <v>663.0304617559854</v>
+        <v>833.9714671257445</v>
       </c>
       <c r="Y12" t="n">
-        <v>455.2701629910314</v>
+        <v>833.9714671257445</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.59667818472769</v>
+        <v>203.1404662235585</v>
       </c>
       <c r="C13" t="n">
         <v>36.59667818472769</v>
@@ -5226,25 +5226,25 @@
         <v>431.9013221525052</v>
       </c>
       <c r="S13" t="n">
-        <v>211.6878655632203</v>
+        <v>431.9013221525052</v>
       </c>
       <c r="T13" t="n">
-        <v>211.6878655632203</v>
+        <v>203.1404662235585</v>
       </c>
       <c r="U13" t="n">
-        <v>211.6878655632203</v>
+        <v>203.1404662235585</v>
       </c>
       <c r="V13" t="n">
-        <v>211.6878655632203</v>
+        <v>203.1404662235585</v>
       </c>
       <c r="W13" t="n">
-        <v>36.59667818472769</v>
+        <v>203.1404662235585</v>
       </c>
       <c r="X13" t="n">
-        <v>36.59667818472769</v>
+        <v>203.1404662235585</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.59667818472769</v>
+        <v>203.1404662235585</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1829.833909236384</v>
+        <v>1201.26131600714</v>
       </c>
       <c r="C14" t="n">
-        <v>1460.871392295973</v>
+        <v>1201.26131600714</v>
       </c>
       <c r="D14" t="n">
-        <v>1102.605693689222</v>
+        <v>1201.26131600714</v>
       </c>
       <c r="E14" t="n">
-        <v>716.817441090978</v>
+        <v>1201.26131600714</v>
       </c>
       <c r="F14" t="n">
-        <v>305.8315363013705</v>
+        <v>790.275411217532</v>
       </c>
       <c r="G14" t="n">
-        <v>36.59667818472769</v>
+        <v>371.553662053382</v>
       </c>
       <c r="H14" t="n">
         <v>36.59667818472769</v>
@@ -5278,16 +5278,16 @@
         <v>36.59667818472769</v>
       </c>
       <c r="J14" t="n">
-        <v>89.31538725293274</v>
+        <v>89.31538725293285</v>
       </c>
       <c r="K14" t="n">
-        <v>289.071870478326</v>
+        <v>289.0718704783262</v>
       </c>
       <c r="L14" t="n">
-        <v>589.164079138176</v>
+        <v>589.1640791381762</v>
       </c>
       <c r="M14" t="n">
-        <v>939.681028323544</v>
+        <v>939.6810283235442</v>
       </c>
       <c r="N14" t="n">
         <v>1281.237710655106</v>
@@ -5311,19 +5311,19 @@
         <v>1829.833909236384</v>
       </c>
       <c r="U14" t="n">
-        <v>1829.833909236384</v>
+        <v>1576.011488589489</v>
       </c>
       <c r="V14" t="n">
-        <v>1829.833909236384</v>
+        <v>1576.011488589489</v>
       </c>
       <c r="W14" t="n">
-        <v>1829.833909236384</v>
+        <v>1223.242833319375</v>
       </c>
       <c r="X14" t="n">
-        <v>1829.833909236384</v>
+        <v>1201.26131600714</v>
       </c>
       <c r="Y14" t="n">
-        <v>1829.833909236384</v>
+        <v>1201.26131600714</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>498.2997644011269</v>
+        <v>989.4362846715845</v>
       </c>
       <c r="C15" t="n">
-        <v>323.8467351199999</v>
+        <v>814.9832553904575</v>
       </c>
       <c r="D15" t="n">
-        <v>174.9123254587487</v>
+        <v>666.0488457292063</v>
       </c>
       <c r="E15" t="n">
-        <v>174.9123254587487</v>
+        <v>506.8113907237507</v>
       </c>
       <c r="F15" t="n">
-        <v>174.9123254587487</v>
+        <v>360.2768327506357</v>
       </c>
       <c r="G15" t="n">
-        <v>36.59667818472769</v>
+        <v>221.9611854766147</v>
       </c>
       <c r="H15" t="n">
-        <v>36.59667818472769</v>
+        <v>112.6017966898364</v>
       </c>
       <c r="I15" t="n">
         <v>36.59667818472769</v>
       </c>
       <c r="J15" t="n">
-        <v>36.59667818472769</v>
+        <v>74.30220046343456</v>
       </c>
       <c r="K15" t="n">
-        <v>227.6622645210757</v>
+        <v>265.3677867997826</v>
       </c>
       <c r="L15" t="n">
-        <v>545.9779205949732</v>
+        <v>583.68344287368</v>
       </c>
       <c r="M15" t="n">
-        <v>969.4164988939815</v>
+        <v>997.7975116510532</v>
       </c>
       <c r="N15" t="n">
-        <v>1419.769249767208</v>
+        <v>1448.15026252428</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.338355013687</v>
+        <v>1448.15026252428</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.338355013687</v>
+        <v>1708.496867717656</v>
       </c>
       <c r="Q15" t="n">
         <v>1829.833909236384</v>
       </c>
       <c r="R15" t="n">
-        <v>1799.7126692637</v>
+        <v>1754.44184381319</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.7126692637</v>
+        <v>1754.44184381319</v>
       </c>
       <c r="T15" t="n">
-        <v>1799.7126692637</v>
+        <v>1754.44184381319</v>
       </c>
       <c r="U15" t="n">
-        <v>1571.516365351626</v>
+        <v>1600.564028688349</v>
       </c>
       <c r="V15" t="n">
-        <v>1336.364257119883</v>
+        <v>1365.411920456606</v>
       </c>
       <c r="W15" t="n">
-        <v>1082.126900391682</v>
+        <v>1365.411920456606</v>
       </c>
       <c r="X15" t="n">
-        <v>874.2754001861488</v>
+        <v>1365.411920456606</v>
       </c>
       <c r="Y15" t="n">
-        <v>666.5151014211949</v>
+        <v>1157.651621691653</v>
       </c>
     </row>
     <row r="16">
@@ -5442,7 +5442,7 @@
         <v>54.18470296673331</v>
       </c>
       <c r="L16" t="n">
-        <v>132.2177539456673</v>
+        <v>132.2177539456672</v>
       </c>
       <c r="M16" t="n">
         <v>224.881788256378</v>
@@ -5463,13 +5463,13 @@
         <v>431.9013221525052</v>
       </c>
       <c r="S16" t="n">
-        <v>431.9013221525052</v>
+        <v>211.6878655632203</v>
       </c>
       <c r="T16" t="n">
-        <v>431.9013221525052</v>
+        <v>211.6878655632203</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2811663906145</v>
+        <v>211.6878655632203</v>
       </c>
       <c r="V16" t="n">
         <v>36.59667818472769</v>
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1383.846446409823</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C17" t="n">
-        <v>1014.883929469411</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="D17" t="n">
-        <v>656.6182308626608</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="E17" t="n">
-        <v>270.8299782644165</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2147.451536646714</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W17" t="n">
-        <v>2147.451536646714</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X17" t="n">
-        <v>1773.985778385635</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.846446409823</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>272.8312459770186</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C19" t="n">
-        <v>272.8312459770186</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
-        <v>122.7146065646829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>122.7146065646829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>122.7146065646829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5703,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>272.8312459770186</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y19" t="n">
-        <v>272.8312459770186</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1075.055971578407</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C20" t="n">
-        <v>1075.055971578407</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="D20" t="n">
-        <v>1075.055971578407</v>
+        <v>876.1789139500663</v>
       </c>
       <c r="E20" t="n">
-        <v>689.2677189801632</v>
+        <v>490.3906613518221</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>79.40475656221452</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
@@ -5755,16 +5755,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W20" t="n">
-        <v>1838.661061815299</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X20" t="n">
-        <v>1465.195303554219</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y20" t="n">
-        <v>1075.055971578407</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>520.9725150767609</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>520.9725150767609</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247702</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C23" t="n">
-        <v>1491.915471247702</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D23" t="n">
-        <v>1491.915471247702</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>1106.127218649458</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>695.1413138598505</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>277.1775057580373</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>2224.752638628377</v>
       </c>
     </row>
     <row r="24">
@@ -6050,19 +6050,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6074,16 +6074,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.388532134052</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C25" t="n">
-        <v>340.388532134052</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D25" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2718927217162</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>629.8057021710126</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>629.8057021710126</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>629.8057021710126</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>629.8057021710126</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>340.388532134052</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X25" t="n">
-        <v>340.388532134052</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y25" t="n">
-        <v>340.388532134052</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1173.337372245452</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C26" t="n">
-        <v>1173.337372245452</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>1173.337372245452</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E26" t="n">
-        <v>787.5491196472076</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F26" t="n">
-        <v>376.5632148576</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>376.5632148576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.476704221264</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="X26" t="n">
-        <v>1563.476704221264</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y26" t="n">
-        <v>1173.337372245452</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6317,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="C28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="D28" t="n">
-        <v>149.5382038240415</v>
+        <v>370.8558756644251</v>
       </c>
       <c r="E28" t="n">
-        <v>149.5382038240415</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>149.5382038240415</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V28" t="n">
-        <v>438.9553738610022</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W28" t="n">
-        <v>149.5382038240415</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X28" t="n">
-        <v>149.5382038240415</v>
+        <v>552.5043404946648</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.5382038240415</v>
+        <v>552.5043404946648</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.680947310029</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.680947310029</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.680947310029</v>
+        <v>1535.424052678055</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117851</v>
+        <v>1149.635800079811</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>738.6498952902036</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>320.6860871883905</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.723949158869</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>1838.661061815299</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1642.146705571109</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X29" t="n">
-        <v>1268.680947310029</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y29" t="n">
-        <v>1268.680947310029</v>
+        <v>1893.689751284806</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
         <v>713.8062203571349</v>
@@ -6560,7 +6560,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6581,10 +6581,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6660,13 +6660,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>149.5382038240415</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X31" t="n">
-        <v>149.5382038240415</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.5382038240415</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>991.2778500677816</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C32" t="n">
-        <v>991.2778500677816</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D32" t="n">
-        <v>633.0121514610312</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>633.0121514610312</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>633.0121514610312</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224074</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942546</v>
+        <v>2496.929385370314</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2165.866498026743</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328861</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X32" t="n">
-        <v>991.2778500677816</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y32" t="n">
-        <v>991.2778500677816</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
         <v>221.4284102424006</v>
@@ -6776,46 +6776,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>632.5337622027571</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U34" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1108.365917331524</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C35" t="n">
-        <v>739.4034003911122</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D35" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6970,19 +6970,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014692</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="X35" t="n">
-        <v>1167.455337753612</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y35" t="n">
-        <v>1167.455337753612</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.9823256406182</v>
+        <v>539.7920585923321</v>
       </c>
       <c r="C37" t="n">
-        <v>579.9823256406182</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D37" t="n">
-        <v>579.9823256406182</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E37" t="n">
-        <v>432.0692320582251</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>285.1792845603147</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>116.1794842986471</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>116.1794842986471</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406182</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="W37" t="n">
-        <v>579.9823256406182</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="X37" t="n">
-        <v>579.9823256406182</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="Y37" t="n">
-        <v>579.9823256406182</v>
+        <v>721.4405234225718</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.94664591678</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.680947310029</v>
+        <v>1177.911859172213</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036444</v>
@@ -7201,25 +7201,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W38" t="n">
-        <v>1626.94664591678</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X38" t="n">
-        <v>1626.94664591678</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y38" t="n">
-        <v>1626.94664591678</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036444</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W40" t="n">
-        <v>713.064484700037</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X40" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1053.094737196451</v>
+        <v>1251.334643674393</v>
       </c>
       <c r="C41" t="n">
-        <v>1053.094737196451</v>
+        <v>1251.334643674393</v>
       </c>
       <c r="D41" t="n">
-        <v>1053.094737196451</v>
+        <v>1251.334643674393</v>
       </c>
       <c r="E41" t="n">
-        <v>667.3064845982062</v>
+        <v>865.5463910761484</v>
       </c>
       <c r="F41" t="n">
-        <v>256.3205798085987</v>
+        <v>454.5604862865408</v>
       </c>
       <c r="G41" t="n">
         <v>36.59667818472768</v>
@@ -7435,28 +7435,28 @@
         <v>1829.833909236384</v>
       </c>
       <c r="R41" t="n">
-        <v>1829.833909236384</v>
+        <v>1774.805219766877</v>
       </c>
       <c r="S41" t="n">
-        <v>1829.833909236384</v>
+        <v>1774.805219766877</v>
       </c>
       <c r="T41" t="n">
-        <v>1829.833909236384</v>
+        <v>1774.805219766877</v>
       </c>
       <c r="U41" t="n">
-        <v>1829.833909236384</v>
+        <v>1774.805219766877</v>
       </c>
       <c r="V41" t="n">
-        <v>1829.833909236384</v>
+        <v>1443.742332423306</v>
       </c>
       <c r="W41" t="n">
-        <v>1829.833909236384</v>
+        <v>1443.742332423306</v>
       </c>
       <c r="X41" t="n">
-        <v>1829.833909236384</v>
+        <v>1443.742332423306</v>
       </c>
       <c r="Y41" t="n">
-        <v>1439.694577260572</v>
+        <v>1443.742332423306</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.3686911632982</v>
+        <v>211.0497074658547</v>
       </c>
       <c r="C42" t="n">
-        <v>342.3686911632982</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="D42" t="n">
-        <v>342.3686911632982</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="E42" t="n">
-        <v>183.1312361578427</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="F42" t="n">
         <v>36.59667818472768</v>
@@ -7490,22 +7490,22 @@
         <v>36.59667818472768</v>
       </c>
       <c r="J42" t="n">
-        <v>111.8538405848575</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="K42" t="n">
-        <v>367.101161025956</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="L42" t="n">
-        <v>462.9635284827389</v>
+        <v>441.2125962803996</v>
       </c>
       <c r="M42" t="n">
-        <v>915.8474210187439</v>
+        <v>600.5692800652062</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.731313554749</v>
+        <v>1053.453172601211</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.867236575093</v>
+        <v>1493.589095621555</v>
       </c>
       <c r="P42" t="n">
         <v>1829.833909236384</v>
@@ -7523,19 +7523,19 @@
         <v>1472.782389003079</v>
       </c>
       <c r="U42" t="n">
-        <v>1244.612764973919</v>
+        <v>1284.266308416354</v>
       </c>
       <c r="V42" t="n">
-        <v>1009.460656742176</v>
+        <v>1049.114200184611</v>
       </c>
       <c r="W42" t="n">
-        <v>755.2233000139745</v>
+        <v>794.8768434564095</v>
       </c>
       <c r="X42" t="n">
-        <v>718.3443269483201</v>
+        <v>587.0253432508766</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.5840281833662</v>
+        <v>379.2650444859227</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="C43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="D43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="E43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="F43" t="n">
-        <v>166.9245820194785</v>
+        <v>205.5964784463953</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9245820194785</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="H43" t="n">
         <v>36.59667818472768</v>
@@ -7593,28 +7593,28 @@
         <v>710.7826805707974</v>
       </c>
       <c r="R43" t="n">
-        <v>710.7826805707974</v>
+        <v>641.6600362897377</v>
       </c>
       <c r="S43" t="n">
-        <v>710.7826805707974</v>
+        <v>641.6600362897377</v>
       </c>
       <c r="T43" t="n">
-        <v>710.7826805707974</v>
+        <v>641.6600362897377</v>
       </c>
       <c r="U43" t="n">
-        <v>421.6090702253654</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="V43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="W43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="X43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.9245820194785</v>
+        <v>352.4864259443057</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1280.136354864876</v>
+        <v>716.9996556410683</v>
       </c>
       <c r="C44" t="n">
-        <v>911.1738379244644</v>
+        <v>716.9996556410683</v>
       </c>
       <c r="D44" t="n">
-        <v>552.9081393177139</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="E44" t="n">
-        <v>552.9081393177139</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="F44" t="n">
-        <v>141.9222345281063</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="G44" t="n">
-        <v>141.9222345281063</v>
+        <v>363.7913981487249</v>
       </c>
       <c r="H44" t="n">
-        <v>141.9222345281063</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="I44" t="n">
         <v>36.59667818472768</v>
@@ -7678,22 +7678,22 @@
         <v>1829.833909236384</v>
       </c>
       <c r="T44" t="n">
-        <v>1611.199242208447</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="U44" t="n">
-        <v>1611.199242208447</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="V44" t="n">
-        <v>1280.136354864876</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="W44" t="n">
-        <v>1280.136354864876</v>
+        <v>1477.06525396627</v>
       </c>
       <c r="X44" t="n">
-        <v>1280.136354864876</v>
+        <v>1103.59949570519</v>
       </c>
       <c r="Y44" t="n">
-        <v>1280.136354864876</v>
+        <v>1103.59949570519</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>497.8942301808398</v>
+        <v>211.0497074658547</v>
       </c>
       <c r="C45" t="n">
-        <v>323.4412008997128</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="D45" t="n">
-        <v>174.5067912384616</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="E45" t="n">
-        <v>174.5067912384616</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="F45" t="n">
-        <v>174.5067912384616</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="G45" t="n">
         <v>36.59667818472768</v>
@@ -7736,43 +7736,43 @@
         <v>696.4599167214981</v>
       </c>
       <c r="M45" t="n">
-        <v>915.8474210187439</v>
+        <v>802.2026032361811</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.731313554749</v>
+        <v>881.3801887356144</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.867236575093</v>
+        <v>1321.516111755958</v>
       </c>
       <c r="P45" t="n">
-        <v>1829.833909236384</v>
+        <v>1657.760925370787</v>
       </c>
       <c r="Q45" t="n">
         <v>1829.833909236384</v>
       </c>
       <c r="R45" t="n">
-        <v>1779.620538648209</v>
+        <v>1829.833909236384</v>
       </c>
       <c r="S45" t="n">
-        <v>1779.620538648209</v>
+        <v>1671.6609368803</v>
       </c>
       <c r="T45" t="n">
-        <v>1779.620538648209</v>
+        <v>1472.782389003079</v>
       </c>
       <c r="U45" t="n">
-        <v>1551.450914619048</v>
+        <v>1284.266308416354</v>
       </c>
       <c r="V45" t="n">
-        <v>1316.298806387306</v>
+        <v>1049.114200184611</v>
       </c>
       <c r="W45" t="n">
-        <v>1062.061449659104</v>
+        <v>794.8768434564095</v>
       </c>
       <c r="X45" t="n">
-        <v>854.2099494535714</v>
+        <v>587.0253432508766</v>
       </c>
       <c r="Y45" t="n">
-        <v>646.4496506886176</v>
+        <v>379.2650444859227</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.5097717671208</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="C46" t="n">
-        <v>184.5097717671208</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="D46" t="n">
-        <v>184.5097717671208</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="E46" t="n">
         <v>36.59667818472768</v>
@@ -7836,22 +7836,22 @@
         <v>710.7826805707974</v>
       </c>
       <c r="T46" t="n">
-        <v>483.4744932393992</v>
+        <v>710.7826805707974</v>
       </c>
       <c r="U46" t="n">
-        <v>194.3008828939671</v>
+        <v>421.6090702253654</v>
       </c>
       <c r="V46" t="n">
-        <v>184.5097717671208</v>
+        <v>166.9245820194785</v>
       </c>
       <c r="W46" t="n">
-        <v>184.5097717671208</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="X46" t="n">
-        <v>184.5097717671208</v>
+        <v>36.59667818472768</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.5097717671208</v>
+        <v>36.59667818472768</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>233.6791982203443</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>88.00464920030089</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>71.46969525869167</v>
       </c>
       <c r="L12" t="n">
-        <v>366.006542642519</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>152.9799116381539</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.51461953511347</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>88.00464920030088</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>456.2863672634999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>44.80261700755916</v>
       </c>
       <c r="P15" t="n">
-        <v>55.48639975773887</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.6616440024848</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451752</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L42" t="n">
-        <v>58.9680719308441</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>393.7222142328021</v>
+        <v>97.23008418108654</v>
       </c>
       <c r="N42" t="n">
         <v>377.4811182187593</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>36.26619292211501</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>157.8672766178939</v>
+        <v>43.07453138298189</v>
       </c>
       <c r="N45" t="n">
-        <v>377.4811182187593</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>18.7768559751099</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>170.2754303037659</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22795,13 +22795,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22865,10 +22865,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>72.01122700758464</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>300.3445504287207</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>136.3077280498097</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>8.899467749903692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23229,10 +23229,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>72.19193945343898</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>331.6074140299677</v>
       </c>
       <c r="I11" t="n">
-        <v>180.8596338225446</v>
+        <v>73.8712021453328</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>101.6133076792577</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>191.5145789473921</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.7330284880335</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2841964404264</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.9324908012807</v>
@@ -23357,7 +23357,7 @@
         <v>108.2657948989106</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>75.24506732005759</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>74.63814476896204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>164.0485367057106</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.508004016692</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4.917223466204007</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>123.6040241035828</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>2.368470940185347</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,10 +23466,10 @@
         <v>161.7993406921575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>218.011322023392</v>
       </c>
       <c r="T13" t="n">
-        <v>226.4732473696572</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.3002335004234</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>113.1827228318833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>147.9920221370322</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>331.6074140299677</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>180.8596338225446</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>101.6133076792576</v>
+        <v>101.6133076792577</v>
       </c>
       <c r="S14" t="n">
         <v>191.5145789473921</v>
@@ -23551,16 +23551,16 @@
         <v>219.7330284880335</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2841964404264</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>347.969398539356</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>108.2657948989106</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>75.24506732005759</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.81811719600425</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>164.0485367057106</v>
@@ -23630,16 +23630,16 @@
         <v>198.508004016692</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>73.57530389936016</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>161.7993406921575</v>
       </c>
       <c r="S16" t="n">
-        <v>218.011322023392</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>226.4732473696572</v>
       </c>
       <c r="U16" t="n">
-        <v>147.0862792961516</v>
+        <v>286.3002335004234</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>78.7973678191203</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>302.7935865747485</v>
       </c>
       <c r="F17" t="n">
-        <v>192.1579192620999</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.22589376217566</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23943,7 +23943,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.2976195790726</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>343.6200422191669</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>388.5770130263634</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>81.19696980360121</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>308.1101168948688</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>102.920594066061</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>139.0307011804961</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.8054897349515</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.528742057493901</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,10 +24502,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>258.5031704429233</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,22 +24609,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>72.6705324754106</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>198.5064500945433</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>59.8470984500114</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>154.6917560356655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.67053247541058</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>24.37936745074313</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>164.4284648408921</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>53.00665891685986</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>201.6805484054164</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>324.2353154456134</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.7698618737554739</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>73.35148433883839</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25371,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>245.5160671478042</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>43.81946566594939</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>314.0594097868505</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,7 +25569,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853701</v>
@@ -25596,7 +25596,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>17.64056718375454</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25605,16 +25605,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>271.6091438252578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>192.2502298020561</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>196.2575074131627</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25687,7 +25687,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>39.25700800801053</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>169.2628018684797</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>27.14626404539183</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25833,7 +25833,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>78.23377414190875</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.006866703262915</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>47.65901546491638</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.46331734716739</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>39.25700800801053</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>242.4444433082502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473974.7313298002</v>
+        <v>473974.7313298003</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630665.0682104833</v>
+        <v>630665.0682104829</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630665.0682104829</v>
+        <v>630665.0682104831</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>784886.8917865067</v>
+        <v>784886.8917865064</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>784886.8917865065</v>
+        <v>784886.8917865066</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>784886.8917865066</v>
+        <v>784886.8917865064</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>784886.8917865066</v>
+        <v>784886.8917865065</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>638232.7034907866</v>
+        <v>638232.7034907864</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="E2" t="n">
-        <v>228173.3589588031</v>
+        <v>228173.358958803</v>
       </c>
       <c r="F2" t="n">
         <v>228173.358958803</v>
       </c>
       <c r="G2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="H2" t="n">
         <v>289152.6100157574</v>
@@ -26337,10 +26337,10 @@
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157574</v>
@@ -26349,7 +26349,7 @@
         <v>289152.6100157574</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="O2" t="n">
         <v>237822.9894645084</v>
@@ -26435,7 +26435,7 @@
         <v>62518.47524617217</v>
       </c>
       <c r="H4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="I4" t="n">
         <v>62518.47524617217</v>
@@ -26447,7 +26447,7 @@
         <v>62518.47524617217</v>
       </c>
       <c r="L4" t="n">
-        <v>62518.47524617217</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="M4" t="n">
         <v>62518.47524617217</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33860.62088319052</v>
+        <v>-22864.41132515405</v>
       </c>
       <c r="C6" t="n">
-        <v>46908.8106483572</v>
+        <v>57905.02020639368</v>
       </c>
       <c r="D6" t="n">
-        <v>46908.81064835726</v>
+        <v>57905.02020639356</v>
       </c>
       <c r="E6" t="n">
-        <v>-91649.52264747834</v>
+        <v>-83443.88397867816</v>
       </c>
       <c r="F6" t="n">
-        <v>126499.1962937045</v>
+        <v>134704.8349625047</v>
       </c>
       <c r="G6" t="n">
-        <v>-33215.1392788665</v>
+        <v>-27753.56690762942</v>
       </c>
       <c r="H6" t="n">
-        <v>171334.2429603566</v>
+        <v>176795.8153315939</v>
       </c>
       <c r="I6" t="n">
-        <v>171334.2429603568</v>
+        <v>176795.815331594</v>
       </c>
       <c r="J6" t="n">
-        <v>108274.3003612503</v>
+        <v>113735.8727324876</v>
       </c>
       <c r="K6" t="n">
-        <v>171334.2429603566</v>
+        <v>176795.8153315937</v>
       </c>
       <c r="L6" t="n">
-        <v>171334.2429603566</v>
+        <v>176795.8153315939</v>
       </c>
       <c r="M6" t="n">
-        <v>117395.4854264887</v>
+        <v>122857.057797726</v>
       </c>
       <c r="N6" t="n">
-        <v>171334.2429603565</v>
+        <v>176795.8153315939</v>
       </c>
       <c r="O6" t="n">
-        <v>149108.5845215201</v>
+        <v>156879.9898175636</v>
       </c>
       <c r="P6" t="n">
-        <v>149108.5845215201</v>
+        <v>156879.9898175636</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26813,13 +26813,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>216.4441884314371</v>
+        <v>216.444188431437</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.4441884314372</v>
+        <v>216.4441884314371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>216.4441884314371</v>
+        <v>216.444188431437</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7682058426265812</v>
+        <v>0.7682058426265811</v>
       </c>
       <c r="H14" t="n">
-        <v>7.867388085799477</v>
+        <v>7.867388085799476</v>
       </c>
       <c r="I14" t="n">
         <v>29.6162557478613</v>
       </c>
       <c r="J14" t="n">
-        <v>65.20051063562786</v>
+        <v>65.20051063562785</v>
       </c>
       <c r="K14" t="n">
-        <v>97.71866395401106</v>
+        <v>97.71866395401105</v>
       </c>
       <c r="L14" t="n">
         <v>121.2286435102943</v>
@@ -32016,13 +32016,13 @@
         <v>129.4340421668495</v>
       </c>
       <c r="P14" t="n">
-        <v>110.4689604270058</v>
+        <v>110.4689604270057</v>
       </c>
       <c r="Q14" t="n">
-        <v>82.95758868794128</v>
+        <v>82.95758868794127</v>
       </c>
       <c r="R14" t="n">
-        <v>48.25581026189203</v>
+        <v>48.25581026189202</v>
       </c>
       <c r="S14" t="n">
         <v>17.50549063885324</v>
@@ -32031,7 +32031,7 @@
         <v>3.362821076097861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06145646741012649</v>
+        <v>0.06145646741012648</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4110263619298735</v>
+        <v>0.4110263619298734</v>
       </c>
       <c r="H15" t="n">
         <v>3.969649337585884</v>
@@ -32077,13 +32077,13 @@
         <v>14.15156553135749</v>
       </c>
       <c r="J15" t="n">
-        <v>38.83297746636582</v>
+        <v>38.83297746636581</v>
       </c>
       <c r="K15" t="n">
-        <v>66.37174371566734</v>
+        <v>66.37174371566732</v>
       </c>
       <c r="L15" t="n">
-        <v>89.24500020762451</v>
+        <v>89.2450002076245</v>
       </c>
       <c r="M15" t="n">
         <v>104.1447058275824</v>
@@ -32092,10 +32092,10 @@
         <v>106.9011062985946</v>
       </c>
       <c r="O15" t="n">
-        <v>97.79362743688529</v>
+        <v>97.79362743688527</v>
       </c>
       <c r="P15" t="n">
-        <v>78.48800765659138</v>
+        <v>78.48800765659136</v>
       </c>
       <c r="Q15" t="n">
         <v>52.46715455090806</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3445906945716368</v>
+        <v>0.3445906945716367</v>
       </c>
       <c r="H16" t="n">
         <v>3.063724539009645</v>
@@ -32156,40 +32156,40 @@
         <v>10.3627819785725</v>
       </c>
       <c r="J16" t="n">
-        <v>24.36256210621472</v>
+        <v>24.36256210621471</v>
       </c>
       <c r="K16" t="n">
-        <v>40.03517342386834</v>
+        <v>40.03517342386833</v>
       </c>
       <c r="L16" t="n">
-        <v>51.23123835476863</v>
+        <v>51.23123835476862</v>
       </c>
       <c r="M16" t="n">
-        <v>54.01615769544302</v>
+        <v>54.01615769544301</v>
       </c>
       <c r="N16" t="n">
         <v>52.73177419749423</v>
       </c>
       <c r="O16" t="n">
-        <v>48.70632835636192</v>
+        <v>48.70632835636191</v>
       </c>
       <c r="P16" t="n">
         <v>41.67667818710049</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.8547717063577</v>
+        <v>28.85477170635769</v>
       </c>
       <c r="R16" t="n">
         <v>15.49405068501195</v>
       </c>
       <c r="S16" t="n">
-        <v>6.00527601358025</v>
+        <v>6.005276013580249</v>
       </c>
       <c r="T16" t="n">
         <v>1.472342058624266</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01879585606754385</v>
+        <v>0.01879585606754384</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>91.0829537758999</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.08638614010795</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>316.6971630702693</v>
+        <v>321.5309657312095</v>
       </c>
       <c r="M12" t="n">
         <v>427.715735655564</v>
@@ -35506,10 +35506,10 @@
         <v>349.0597022691704</v>
       </c>
       <c r="P12" t="n">
-        <v>262.9763688821983</v>
+        <v>97.49351188041496</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>122.5626682007356</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>53.25122128101535</v>
+        <v>53.25122128101533</v>
       </c>
       <c r="K14" t="n">
         <v>201.7742254801952</v>
@@ -35655,7 +35655,7 @@
         <v>303.1234430907575</v>
       </c>
       <c r="M14" t="n">
-        <v>354.0575244296646</v>
+        <v>354.0575244296645</v>
       </c>
       <c r="N14" t="n">
         <v>345.0067498298608</v>
@@ -35667,7 +35667,7 @@
         <v>201.0346728432189</v>
       </c>
       <c r="Q14" t="n">
-        <v>72.96688947339648</v>
+        <v>72.96688947339646</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.08638614010795</v>
       </c>
       <c r="K15" t="n">
         <v>192.9955417538869</v>
@@ -35734,19 +35734,19 @@
         <v>321.5309657312095</v>
       </c>
       <c r="M15" t="n">
-        <v>427.715735655564</v>
+        <v>418.2970391690639</v>
       </c>
       <c r="N15" t="n">
         <v>454.9017685588148</v>
       </c>
       <c r="O15" t="n">
-        <v>349.0597022691704</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>262.9763688821983</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.14702446737131</v>
+        <v>122.5626682007356</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>17.76568159798548</v>
       </c>
       <c r="L16" t="n">
-        <v>78.82126361508477</v>
+        <v>78.82126361508476</v>
       </c>
       <c r="M16" t="n">
         <v>93.6000346572836</v>
       </c>
       <c r="N16" t="n">
-        <v>96.86394657672282</v>
+        <v>96.86394657672281</v>
       </c>
       <c r="O16" t="n">
-        <v>73.2914562704016</v>
+        <v>73.29145627040158</v>
       </c>
       <c r="P16" t="n">
-        <v>38.95523745199398</v>
+        <v>38.95523745199397</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,10 +36451,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,19 +37156,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37399,7 +37399,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>96.83067419877062</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>457.458477309096</v>
+        <v>160.9663472573804</v>
       </c>
       <c r="N42" t="n">
         <v>457.458477309096</v>
@@ -37876,7 +37876,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>21.17845723362746</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>221.6035396941878</v>
+        <v>106.8107944592757</v>
       </c>
       <c r="N45" t="n">
-        <v>457.458477309096</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>21.17845723362746</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
